--- a/installationdocs/03.1_ParticipantMapping.xlsx
+++ b/installationdocs/03.1_ParticipantMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/o_ugur_exeter_ac_uk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ou213\OneDrive - University of Exeter\Desktop\git\metadata-schema\installationdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="11_F25DC773A252ABDACC1048A6595D604E5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89329C96-3A45-42F5-BC86-E7981AD99B1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B12D51-DA35-4260-A8EF-4245DA0B2975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1860" windowWidth="15285" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>viafauth</t>
   </si>
   <si>
-    <t>ca_entities.anonymised</t>
-  </si>
-  <si>
     <t>ca_entities.ethniccom</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>ca_entities.dates.dates_type</t>
+  </si>
+  <si>
+    <t>ca_entities.access</t>
   </si>
 </sst>
 </file>
@@ -478,10 +478,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,18 +745,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
     <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -803,7 +799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -818,7 +814,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -826,12 +822,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -839,12 +835,12 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="5"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -852,12 +848,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="5"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -865,12 +861,12 @@
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D7" s="5"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -878,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="3" t="s">
@@ -886,7 +882,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -894,32 +890,32 @@
         <v>8</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -927,17 +923,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -945,14 +941,14 @@
         <v>45</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -965,7 +961,7 @@
       <c r="D13" s="5"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -973,14 +969,14 @@
         <v>11</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -988,14 +984,14 @@
         <v>47</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="78" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1010,10 +1006,10 @@
         <v>49</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1025,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1037,13 +1033,13 @@
         <v>14</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1047,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
@@ -1059,7 +1055,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -1067,7 +1063,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3" t="s">
@@ -1075,7 +1071,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="3" t="s">
@@ -1091,7 +1087,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -1099,13 +1095,13 @@
         <v>18</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="3"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1113,13 +1109,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="3"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
@@ -1133,7 +1129,7 @@
       <c r="E24" s="3"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -1141,27 +1137,27 @@
         <v>21</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1169,27 +1165,27 @@
         <v>22</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -1197,27 +1193,27 @@
         <v>23</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
@@ -1225,51 +1221,51 @@
         <v>24</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="10"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="20"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="10"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="10"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1281,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
@@ -1304,7 +1300,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1319,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
@@ -1342,7 +1338,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -1360,7 +1356,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1371,7 @@
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1387,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>16</v>
       </c>
@@ -1407,7 +1403,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1419,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>16</v>
       </c>
@@ -1444,7 +1440,7 @@
       <c r="H46" s="7"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>54</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
